--- a/data/trans_dic/CAGE_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/CAGE_R-Habitat-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.006336099845764883</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.008602565340555262</v>
+        <v>0.008602565340555261</v>
       </c>
     </row>
     <row r="5">
@@ -708,16 +708,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.001326516252749683</v>
+        <v>0.002511166558170026</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.00622593704958599</v>
+        <v>0.006060894402303552</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.003331006215185152</v>
+        <v>0.00316943069529257</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.003072158472677336</v>
+        <v>0.003169513269344722</v>
       </c>
       <c r="G5" s="5" t="inlineStr"/>
       <c r="H5" s="5" t="n">
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.00125073809836479</v>
+        <v>0.0007680284894372016</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.003595797011577169</v>
+        <v>0.003548110855157033</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.003016176116908246</v>
+        <v>0.003033221952443457</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.003992668342192447</v>
+        <v>0.003763335405144629</v>
       </c>
     </row>
     <row r="6">
@@ -750,38 +750,38 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.01652772672831855</v>
+        <v>0.01825982982930174</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.02272028132267978</v>
+        <v>0.02206790413408108</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.02013283753353255</v>
+        <v>0.01990268977700963</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.02086006869409968</v>
+        <v>0.02140660950563121</v>
       </c>
       <c r="G6" s="5" t="inlineStr"/>
       <c r="H6" s="5" t="n">
-        <v>0.00641875183936733</v>
+        <v>0.00830473308245756</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.009917619829063015</v>
+        <v>0.008934123002544377</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.02669667754640713</v>
+        <v>0.02819074785517427</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.009104219701465769</v>
+        <v>0.009206282989399031</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.01187302185411846</v>
+        <v>0.01222376657922833</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.01186565455829448</v>
+        <v>0.01250014599903696</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.01822297173801795</v>
+        <v>0.01836283752477652</v>
       </c>
     </row>
     <row r="7">
@@ -829,7 +829,7 @@
         <v>0.01238607031786046</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.02091840431956211</v>
+        <v>0.0209184043195621</v>
       </c>
     </row>
     <row r="8">
@@ -840,16 +840,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.003071912486250875</v>
+        <v>0.003082475078125571</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.006868845381693502</v>
+        <v>0.007196808166540119</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01341746350962271</v>
+        <v>0.01363721192034258</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.009814364490559746</v>
+        <v>0.009264707304131693</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>0</v>
@@ -858,22 +858,22 @@
         <v>0</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.0008899334692145962</v>
+        <v>0.0008913369367198112</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.01063437236367912</v>
+        <v>0.01003169418497469</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.001631383980554335</v>
+        <v>0.002050558993077236</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.00366828624082256</v>
+        <v>0.003778025725621137</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.007561980320769619</v>
+        <v>0.00781057567674691</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.01303227194065351</v>
+        <v>0.01237335643425174</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01482681082349444</v>
+        <v>0.01428954167068151</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02477203324735196</v>
+        <v>0.02526897011905409</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.03595247324625359</v>
+        <v>0.03524737486123775</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.03417012633440677</v>
+        <v>0.03394702789757938</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.00533786424749617</v>
+        <v>0.005345577447369731</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.004780263140582251</v>
+        <v>0.005697985400697113</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.007752543953138459</v>
+        <v>0.007856375109103964</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.05693416639902252</v>
+        <v>0.05448351019537468</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.00774685436977392</v>
+        <v>0.007883312190986294</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.01359893385194552</v>
+        <v>0.01344938900745745</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.01815529867885364</v>
+        <v>0.01833879644419958</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.03327597152386976</v>
+        <v>0.0335923753658245</v>
       </c>
     </row>
     <row r="10">
@@ -965,7 +965,7 @@
         <v>0.004841446464000738</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.02541462815431643</v>
+        <v>0.02541462815431644</v>
       </c>
     </row>
     <row r="11">
@@ -976,16 +976,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.004209797046869588</v>
+        <v>0.004211847608730312</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01460377453605298</v>
+        <v>0.01414807347586773</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.004103531754326988</v>
+        <v>0.004255486505375081</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01192532964152523</v>
+        <v>0.01249029716848659</v>
       </c>
       <c r="G11" s="5" t="inlineStr"/>
       <c r="H11" s="5" t="n">
@@ -993,19 +993,19 @@
       </c>
       <c r="I11" s="5" t="inlineStr"/>
       <c r="J11" s="5" t="n">
-        <v>0.006908702292771555</v>
+        <v>0.00711044509876313</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.002017903238220207</v>
+        <v>0.002007840164079211</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.007641533381826436</v>
+        <v>0.007338185030462114</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.002036799296306095</v>
+        <v>0.002079606595042443</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.01269015152481828</v>
+        <v>0.0135077990765974</v>
       </c>
     </row>
     <row r="12">
@@ -1016,36 +1016,36 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.01935848931270175</v>
+        <v>0.01924561276973522</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.0383143109850568</v>
+        <v>0.0389129030488631</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01964558205309339</v>
+        <v>0.01889721488299988</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.05385610181356374</v>
+        <v>0.05931107198601217</v>
       </c>
       <c r="G12" s="5" t="inlineStr"/>
       <c r="H12" s="5" t="n">
-        <v>0.006421552538446706</v>
+        <v>0.006924613355409113</v>
       </c>
       <c r="I12" s="5" t="inlineStr"/>
       <c r="J12" s="5" t="n">
-        <v>0.06310314013932676</v>
+        <v>0.07109162895455144</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.0092941718346302</v>
+        <v>0.00981434146010738</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.01988881434185613</v>
+        <v>0.02038661090257958</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.0101576502886422</v>
+        <v>0.009529803995140104</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.0447597138381108</v>
+        <v>0.04608146799542073</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.01214828823252044</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.03143221650608834</v>
+        <v>0.03143221650608833</v>
       </c>
     </row>
     <row r="14">
@@ -1104,40 +1104,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.003453592697017442</v>
+        <v>0.003095967831407376</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01697022181154673</v>
+        <v>0.01684888374927479</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.006890219992131103</v>
+        <v>0.007279308026335422</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.02488841911419648</v>
+        <v>0.02398314868386928</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.003362656889158548</v>
+        <v>0.003091265428925483</v>
       </c>
       <c r="H14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.006047206614809248</v>
+        <v>0.006389757221750527</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.005721444405678217</v>
+        <v>0.006140072627090006</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.004621744658055092</v>
+        <v>0.004546528832443527</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.008598856996159171</v>
+        <v>0.008913284614810685</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.00835535456121134</v>
+        <v>0.007450519033173274</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.02170466477059966</v>
+        <v>0.01997026648847208</v>
       </c>
     </row>
     <row r="15">
@@ -1148,40 +1148,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.01509444648138206</v>
+        <v>0.01680517605113645</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03963858724118523</v>
+        <v>0.03931285572861154</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.02172605859159709</v>
+        <v>0.02231375440726829</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.06235467583872598</v>
+        <v>0.06232534207609163</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.01682594638758005</v>
+        <v>0.01673637526304956</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.006973834916634032</v>
+        <v>0.006110708216000403</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.01977227325825348</v>
+        <v>0.01958459498035357</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.04504699754807457</v>
+        <v>0.04831220187060148</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.01347551828126608</v>
+        <v>0.01264205581825861</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.0201593991046657</v>
+        <v>0.02044008927896711</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.01857527387392953</v>
+        <v>0.01774891197646393</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.04869238851257761</v>
+        <v>0.0458558153259557</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.004764510512152104</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.01857217496712687</v>
+        <v>0.01857217496712686</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.005247711592209641</v>
@@ -1229,7 +1229,7 @@
         <v>0.009463780512459309</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.02251614174435218</v>
+        <v>0.02251614174435219</v>
       </c>
     </row>
     <row r="17">
@@ -1240,40 +1240,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.005202995085618597</v>
+        <v>0.005249252012981832</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01458988868132487</v>
+        <v>0.01473616618785992</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01100668276237278</v>
+        <v>0.01052146857952955</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.01740687539016688</v>
+        <v>0.01765908853092992</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.001253897057115723</v>
+        <v>0.001291286998514182</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.0005601107140409108</v>
+        <v>0.0005611104118137482</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.002924139433460672</v>
+        <v>0.002859876747790308</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.0106850183987965</v>
+        <v>0.01066764722450474</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.003724589368747743</v>
+        <v>0.003730046232927104</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.007859928362435972</v>
+        <v>0.007658755628866626</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.007262377197038893</v>
+        <v>0.007441595248495876</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.01732933819817283</v>
+        <v>0.01693423173424262</v>
       </c>
     </row>
     <row r="18">
@@ -1284,40 +1284,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.01140851388089124</v>
+        <v>0.01163662743468987</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.02484559453478931</v>
+        <v>0.02478404426168417</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.01917639135806484</v>
+        <v>0.01930128611607264</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.03338830762963848</v>
+        <v>0.03347910747208128</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.005233451838633942</v>
+        <v>0.005371314625151636</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.003468477009389347</v>
+        <v>0.003165040112038954</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.007567139068040416</v>
+        <v>0.007582154417295484</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.03131233246720073</v>
+        <v>0.02976064351388362</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.00735024235989293</v>
+        <v>0.007130935617490323</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.01338966741313569</v>
+        <v>0.01300722602667501</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.01212264244503155</v>
+        <v>0.0121205847405442</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.02941075561889078</v>
+        <v>0.02934439611852979</v>
       </c>
     </row>
     <row r="19">
@@ -1588,16 +1588,16 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>921</v>
+        <v>1743</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>4380</v>
+        <v>4264</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>2248</v>
+        <v>2139</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1085</v>
+        <v>1119</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="n">
@@ -1610,16 +1610,16 @@
         <v>0</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>1729</v>
+        <v>1062</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>5036</v>
+        <v>4969</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>4065</v>
+        <v>4088</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>2101</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="7">
@@ -1630,38 +1630,38 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>11470</v>
+        <v>12673</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>15983</v>
+        <v>15524</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>13586</v>
+        <v>13430</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>7367</v>
+        <v>7560</v>
       </c>
       <c r="G7" s="6" t="inlineStr"/>
       <c r="H7" s="6" t="n">
-        <v>4474</v>
+        <v>5789</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>6673</v>
+        <v>6011</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>4621</v>
+        <v>4879</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>12585</v>
+        <v>12726</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>16628</v>
+        <v>17120</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>15991</v>
+        <v>16846</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>9590</v>
+        <v>9663</v>
       </c>
     </row>
     <row r="8">
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>2955</v>
+        <v>2965</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>6992</v>
+        <v>7326</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>13718</v>
+        <v>13943</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>4914</v>
+        <v>4639</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0</v>
@@ -1782,22 +1782,22 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>2359</v>
+        <v>2225</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>3149</v>
+        <v>3958</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>7520</v>
+        <v>7745</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>15618</v>
+        <v>16132</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>9416</v>
+        <v>8940</v>
       </c>
     </row>
     <row r="11">
@@ -1808,40 +1808,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>14260</v>
+        <v>13744</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>25217</v>
+        <v>25722</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>36759</v>
+        <v>36038</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>17110</v>
+        <v>16998</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>5169</v>
+        <v>5177</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>4934</v>
+        <v>5881</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>8085</v>
+        <v>8194</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>12629</v>
+        <v>12085</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>14953</v>
+        <v>15216</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>27880</v>
+        <v>27573</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>37497</v>
+        <v>37876</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>24043</v>
+        <v>24272</v>
       </c>
     </row>
     <row r="12">
@@ -1944,16 +1944,16 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>2856</v>
+        <v>2858</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>11064</v>
+        <v>10719</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>3117</v>
+        <v>3232</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>4232</v>
+        <v>4433</v>
       </c>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="n">
@@ -1961,19 +1961,19 @@
       </c>
       <c r="I14" s="6" t="inlineStr"/>
       <c r="J14" s="6" t="n">
-        <v>1337</v>
+        <v>1376</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>2749</v>
+        <v>2735</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>11728</v>
+        <v>11263</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>3146</v>
+        <v>3212</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>6960</v>
+        <v>7409</v>
       </c>
     </row>
     <row r="15">
@@ -1984,36 +1984,36 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>13135</v>
+        <v>13058</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>29028</v>
+        <v>29481</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>14922</v>
+        <v>14353</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>19114</v>
+        <v>21050</v>
       </c>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="n">
-        <v>4991</v>
+        <v>5382</v>
       </c>
       <c r="I15" s="6" t="inlineStr"/>
       <c r="J15" s="6" t="n">
-        <v>12216</v>
+        <v>13762</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>12662</v>
+        <v>13371</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>30525</v>
+        <v>31289</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>15689</v>
+        <v>14719</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>24550</v>
+        <v>25275</v>
       </c>
     </row>
     <row r="16">
@@ -2116,40 +2116,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>3254</v>
+        <v>2917</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>16083</v>
+        <v>15968</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>6460</v>
+        <v>6825</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>11561</v>
+        <v>11141</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>3492</v>
+        <v>3211</v>
       </c>
       <c r="H18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>6312</v>
+        <v>6669</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1761</v>
+        <v>1890</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>9155</v>
+        <v>9006</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>17195</v>
+        <v>17823</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>16555</v>
+        <v>14762</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>16764</v>
+        <v>15424</v>
       </c>
     </row>
     <row r="19">
@@ -2160,40 +2160,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>14222</v>
+        <v>15834</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>37567</v>
+        <v>37258</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>20370</v>
+        <v>20921</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>28965</v>
+        <v>28952</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>17476</v>
+        <v>17383</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>7336</v>
+        <v>6428</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>20638</v>
+        <v>20442</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>13867</v>
+        <v>14873</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>26693</v>
+        <v>25042</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>40312</v>
+        <v>40873</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>36804</v>
+        <v>35167</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>37608</v>
+        <v>35417</v>
       </c>
     </row>
     <row r="20">
@@ -2296,40 +2296,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>17048</v>
+        <v>17199</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>49996</v>
+        <v>50498</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>37361</v>
+        <v>35714</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>29127</v>
+        <v>29549</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>4237</v>
+        <v>4364</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>1993</v>
+        <v>1997</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>10365</v>
+        <v>10137</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>9577</v>
+        <v>9562</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>24790</v>
+        <v>24826</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>54902</v>
+        <v>53497</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>50393</v>
+        <v>51636</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>44530</v>
+        <v>43515</v>
       </c>
     </row>
     <row r="23">
@@ -2340,40 +2340,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>37380</v>
+        <v>38128</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>85140</v>
+        <v>84929</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>65091</v>
+        <v>65515</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>55869</v>
+        <v>56021</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>17685</v>
+        <v>18151</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>12342</v>
+        <v>11262</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>26822</v>
+        <v>26875</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>28066</v>
+        <v>26675</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>48921</v>
+        <v>47462</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>93528</v>
+        <v>90857</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>84118</v>
+        <v>84103</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>75575</v>
+        <v>75404</v>
       </c>
     </row>
     <row r="24">
